--- a/Assets/Resources/visualisation_combinaison.xlsx
+++ b/Assets/Resources/visualisation_combinaison.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D96513-AE55-450B-90A4-399E2FFDAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E5D237-4F9F-4833-910C-F3707389023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLSX" sheetId="1" r:id="rId1"/>
     <sheet name="CSVforUnity" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1062,6 +1075,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,15 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3751,26 +3764,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="75" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="77" t="s">
+      <c r="R1" s="81"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="79"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
@@ -4289,11 +4302,11 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
@@ -4397,7 +4410,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="str">
+      <c r="A24" s="75" t="str">
         <f>A3</f>
         <v>point R</v>
       </c>
@@ -4418,7 +4431,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="69" t="s">
         <v>43</v>
       </c>
@@ -4436,7 +4449,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="70" t="s">
         <v>44</v>
       </c>
@@ -4454,7 +4467,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="str">
+      <c r="A27" s="75" t="str">
         <f>A4</f>
         <v>point ++</v>
       </c>
@@ -4475,7 +4488,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="69" t="s">
         <v>43</v>
       </c>
@@ -4493,7 +4506,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="70" t="s">
         <v>44</v>
       </c>
@@ -4511,7 +4524,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="str">
+      <c r="A30" s="75" t="str">
         <f>A5</f>
         <v>point --</v>
       </c>
@@ -4532,7 +4545,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="69" t="s">
         <v>43</v>
       </c>
@@ -4550,7 +4563,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="70" t="s">
         <v>44</v>
       </c>
@@ -4568,7 +4581,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="str">
+      <c r="A33" s="75" t="str">
         <f>A6</f>
         <v>point +-</v>
       </c>
@@ -4589,7 +4602,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="69" t="s">
         <v>43</v>
       </c>
@@ -4607,7 +4620,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="70" t="s">
         <v>44</v>
       </c>
@@ -4625,7 +4638,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="str">
+      <c r="A36" s="75" t="str">
         <f>A7</f>
         <v>point -+</v>
       </c>
@@ -4646,7 +4659,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="69" t="s">
         <v>43</v>
       </c>
@@ -4664,7 +4677,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="70" t="s">
         <v>44</v>
       </c>
@@ -4696,16 +4709,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Assets/Resources/visualisation_combinaison.xlsx
+++ b/Assets/Resources/visualisation_combinaison.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20385"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D96513-AE55-450B-90A4-399E2FFDAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D182A-234C-4395-8870-4D131EBCE7C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="XLSX" sheetId="1" r:id="rId1"/>
     <sheet name="CSVforUnity" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1062,6 +1062,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,15 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +1106,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1168,7 +1168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1259,10 +1259,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.40227112064940934</c:v>
+                  <c:v>-6.6147367097487281E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4305553918968712</c:v>
+                  <c:v>-0.43614736709748725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,10 +1274,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.26491120303125792</c:v>
+                  <c:v>0.46542939940024231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.21592140817559441</c:v>
+                  <c:v>0.17542939940024233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,10 +1327,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.65682956187656649</c:v>
+                  <c:v>-0.43614736709748725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1759969506697141</c:v>
+                  <c:v>-6.6147367097487281E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,10 +1342,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.035276180410083E-2</c:v>
+                  <c:v>0.46542939940024225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8637033051562686E-2</c:v>
+                  <c:v>0.17542939940024238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1394,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.4164132562731403</c:v>
+                  <c:v>-0.25114736709748731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,7 +1406,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.4494897427831397E-2</c:v>
+                  <c:v>0.32042939940024229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,9 +1486,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1515,9 +1513,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1549,7 +1545,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1589,10 +1585,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22627416997969524</c:v>
+                  <c:v>-0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48083261120685233</c:v>
+                  <c:v>-0.28999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,10 +1603,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22627416997969518</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8284271247461912E-2</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,9 +1696,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1734,7 +1728,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1774,10 +1768,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30909626441250188</c:v>
+                  <c:v>-0.2511473670974872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40227112064940934</c:v>
+                  <c:v>-6.6147367097487281E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,10 +1786,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2822094432806637E-2</c:v>
+                  <c:v>0.14499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26491120303125792</c:v>
+                  <c:v>0.46542939940024231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,9 +1885,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1925,7 +1917,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1965,10 +1957,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2822094432806637E-2</c:v>
+                  <c:v>-0.2511473670974872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4305553918968712</c:v>
+                  <c:v>-0.43614736709748725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,10 +1975,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.30909626441250188</c:v>
+                  <c:v>-0.14499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.21592140817559441</c:v>
+                  <c:v>0.17542939940024233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,9 +2069,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2112,9 +2102,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2146,7 +2134,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2186,10 +2174,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30909626441250188</c:v>
+                  <c:v>-0.2511473670974872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65682956187656649</c:v>
+                  <c:v>-0.43614736709748725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,10 +2192,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2822094432806637E-2</c:v>
+                  <c:v>0.14499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.035276180410083E-2</c:v>
+                  <c:v>0.46542939940024225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,9 +2271,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2318,9 +2304,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2353,9 +2337,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2387,7 +2369,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2427,10 +2409,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2822094432806637E-2</c:v>
+                  <c:v>-0.2511473670974872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1759969506697141</c:v>
+                  <c:v>-6.6147367097487281E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,10 +2427,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.30909626441250188</c:v>
+                  <c:v>-0.14499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8637033051562686E-2</c:v>
+                  <c:v>0.17542939940024238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,7 +2533,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2589,7 +2571,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-869429664"/>
@@ -2676,7 +2658,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2714,7 +2696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-869430208"/>
@@ -2766,7 +2748,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2796,7 +2778,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3405,7 +3387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3727,11 +3709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3751,26 +3733,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="75" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77" t="s">
+      <c r="O1" s="78"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="77" t="s">
+      <c r="R1" s="81"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="79"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
@@ -3842,16 +3824,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="46">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C3" s="47">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D3" s="47">
         <v>90</v>
       </c>
       <c r="E3" s="47">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F3" s="48">
         <v>90</v>
@@ -3862,7 +3844,7 @@
       </c>
       <c r="H3" s="11">
         <f>$G3+$E3</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I3" s="9">
         <v>0</v>
@@ -3881,38 +3863,38 @@
       </c>
       <c r="N3" s="26">
         <f>$B3*ABS(SIN($D3*PI()/180))*COS(($E3+$I3)*PI()/180)</f>
-        <v>0.22627416997969524</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O3" s="71">
         <f>-$B3*COS($D3*PI()/180)</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="P3" s="25">
         <f>$B3*ABS(SIN($D3*PI()/180))*SIN(($E3+$I3)*PI()/180)</f>
-        <v>-0.22627416997969518</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="24">
         <f>$C3*COS(($H3+$J3)*PI()/180)</f>
-        <v>0.2545584412271571</v>
+        <v>2.2665246415809471E-17</v>
       </c>
       <c r="R3" s="11">
         <v>0</v>
       </c>
       <c r="S3" s="25">
         <f>$C3*SIN(($H3+$J3)*PI()/180)</f>
-        <v>0.2545584412271571</v>
+        <v>0.37</v>
       </c>
       <c r="T3" s="24">
         <f>N3+Q3</f>
-        <v>0.48083261120685233</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U3" s="11">
         <f t="shared" ref="U3" si="0">O3+R3</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="V3" s="25">
         <f>P3+S3</f>
-        <v>2.8284271247461912E-2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3921,11 +3903,11 @@
       </c>
       <c r="B4" s="52">
         <f t="shared" ref="B4:H4" si="1">B3</f>
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C4" s="44">
         <f t="shared" si="1"/>
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D4" s="44">
         <f t="shared" si="1"/>
@@ -3933,7 +3915,7 @@
       </c>
       <c r="E4" s="44">
         <f t="shared" si="1"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F4" s="44">
         <f t="shared" si="1"/>
@@ -3945,7 +3927,7 @@
       </c>
       <c r="H4" s="21">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I4" s="45">
         <v>30</v>
@@ -3965,38 +3947,38 @@
       </c>
       <c r="N4" s="17">
         <f>$B4*ABS(SIN($D4*PI()/180))*COS(($E4+$I4)*PI()/180)</f>
-        <v>0.30909626441250188</v>
+        <v>0.2511473670974872</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O6" si="2">-$B4*COS($D4*PI()/180)</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="P4" s="13">
         <f>$B4*ABS(SIN($D4*PI()/180))*SIN(($E4+$I4)*PI()/180)</f>
-        <v>-8.2822094432806637E-2</v>
+        <v>0.14499999999999996</v>
       </c>
       <c r="Q4" s="12">
         <f>$C4*COS(($H4+$J4)*PI()/180)</f>
-        <v>9.3174856236907466E-2</v>
+        <v>-0.18499999999999991</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="13">
         <f>$C4*SIN(($H4+$J4)*PI()/180)</f>
-        <v>0.34773329746406456</v>
+        <v>0.32042939940024234</v>
       </c>
       <c r="T4" s="12">
         <f>(N4+Q4)*B41</f>
-        <v>0.40227112064940934</v>
+        <v>-6.6147367097487281E-2</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U7" si="3">O4+R4</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="V4" s="13">
         <f>P4+S4</f>
-        <v>0.26491120303125792</v>
+        <v>0.46542939940024231</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -4005,11 +3987,11 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" ref="B5:H5" si="4">B3</f>
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="4"/>
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="4"/>
@@ -4017,7 +3999,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="4"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="4"/>
@@ -4029,7 +4011,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I5" s="44">
         <f>-I4</f>
@@ -4050,38 +4032,38 @@
       </c>
       <c r="N5" s="17">
         <f>$B5*ABS(SIN($D5*PI()/180))*COS(($E5+$I5)*PI()/180)</f>
-        <v>8.2822094432806637E-2</v>
+        <v>0.2511473670974872</v>
       </c>
       <c r="O5" s="1">
         <f>-$B5*COS($D5*PI()/180)</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="P5" s="13">
         <f>$B5*ABS(SIN($D5*PI()/180))*SIN(($E5+$I5)*PI()/180)</f>
-        <v>-0.30909626441250188</v>
+        <v>-0.14499999999999996</v>
       </c>
       <c r="Q5" s="12">
         <f>$C5*COS(($H5+$J5)*PI()/180)</f>
-        <v>0.34773329746406456</v>
+        <v>0.18500000000000003</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="13">
         <f>$C5*SIN(($H5+$J5)*PI()/180)</f>
-        <v>9.3174856236907466E-2</v>
+        <v>0.32042939940024229</v>
       </c>
       <c r="T5" s="12">
         <f>(N5+Q5)*B41</f>
-        <v>0.4305553918968712</v>
+        <v>-0.43614736709748725</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="3"/>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="V5" s="13">
         <f t="shared" ref="V5:V7" si="5">P5+S5</f>
-        <v>-0.21592140817559441</v>
+        <v>0.17542939940024233</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -4090,11 +4072,11 @@
       </c>
       <c r="B6" s="12">
         <f t="shared" ref="B6:H6" si="6">B3</f>
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="6"/>
@@ -4102,7 +4084,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="6"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="6"/>
@@ -4114,7 +4096,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1">
         <f>I4</f>
@@ -4135,38 +4117,38 @@
       </c>
       <c r="N6" s="17">
         <f>$B6*ABS(SIN($D6*PI()/180))*COS(($E6+$I6)*PI()/180)</f>
-        <v>0.30909626441250188</v>
+        <v>0.2511473670974872</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="P6" s="13">
         <f>$B6*ABS(SIN($D6*PI()/180))*SIN(($E6+$I6)*PI()/180)</f>
-        <v>-8.2822094432806637E-2</v>
+        <v>0.14499999999999996</v>
       </c>
       <c r="Q6" s="12">
         <f>$C6*COS(($H6+$J6)*PI()/180)</f>
-        <v>0.34773329746406456</v>
+        <v>0.18500000000000003</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="13">
         <f t="shared" ref="S6:S7" si="7">$C6*SIN(($H6+$J6)*PI()/180)</f>
-        <v>9.3174856236907466E-2</v>
+        <v>0.32042939940024229</v>
       </c>
       <c r="T6" s="12">
         <f>(N6+Q6)*B41</f>
-        <v>0.65682956187656649</v>
+        <v>-0.43614736709748725</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="5"/>
-        <v>1.035276180410083E-2</v>
+        <v>0.46542939940024225</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4175,11 +4157,11 @@
       </c>
       <c r="B7" s="14">
         <f t="shared" ref="B7:H7" si="8">B3</f>
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="8"/>
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="8"/>
@@ -4187,7 +4169,7 @@
       </c>
       <c r="E7" s="15">
         <f t="shared" si="8"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="8"/>
@@ -4199,7 +4181,7 @@
       </c>
       <c r="H7" s="15">
         <f t="shared" si="8"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I7" s="15">
         <f>-I4</f>
@@ -4220,38 +4202,38 @@
       </c>
       <c r="N7" s="18">
         <f>$B7*ABS(SIN($D7*PI()/180))*COS(($E7+$I7)*PI()/180)</f>
-        <v>8.2822094432806637E-2</v>
+        <v>0.2511473670974872</v>
       </c>
       <c r="O7" s="15">
         <f>-$B7*COS($D7*PI()/180)</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="P7" s="16">
         <f>$B7*ABS(SIN($D7*PI()/180))*SIN(($E7+$I7)*PI()/180)</f>
-        <v>-0.30909626441250188</v>
+        <v>-0.14499999999999996</v>
       </c>
       <c r="Q7" s="14">
         <f>$C7*COS(($H7+$J7)*PI()/180)</f>
-        <v>9.3174856236907466E-2</v>
+        <v>-0.18499999999999991</v>
       </c>
       <c r="R7" s="15">
         <v>0</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="7"/>
-        <v>0.34773329746406456</v>
+        <v>0.32042939940024234</v>
       </c>
       <c r="T7" s="14">
         <f>(N7+Q7)*B41</f>
-        <v>0.1759969506697141</v>
+        <v>-6.6147367097487281E-2</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="3"/>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="5"/>
-        <v>3.8637033051562686E-2</v>
+        <v>0.17542939940024238</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4261,14 +4243,14 @@
       </c>
       <c r="B10" s="28">
         <f>(V5-V4)/(T5-T4)</f>
-        <v>-17.000000000000028</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="29">
         <f>V4-B10*T4</f>
-        <v>7.1035202540712286</v>
+        <v>0.51727463307124588</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4277,23 +4259,23 @@
       </c>
       <c r="B11" s="31">
         <f>(V6-V7)/(T6-T7)</f>
-        <v>-5.8823529411764601E-2</v>
+        <v>-0.78378378378378344</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="32">
         <f>V6-B11*T6</f>
-        <v>4.8989794855663495E-2</v>
+        <v>0.12358416572923886</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
@@ -4309,15 +4291,15 @@
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36">
         <f>(D11-D10)/(B10-B11)</f>
-        <v>0.4164132562731403</v>
+        <v>-0.25114736709748731</v>
       </c>
       <c r="C16" s="37">
         <f>U3</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="D16" s="38">
         <f>B10*B16+D10</f>
-        <v>2.4494897427831397E-2</v>
+        <v>0.32042939940024229</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4331,7 +4313,7 @@
       </c>
       <c r="B18" s="26">
         <f>T5-T4</f>
-        <v>2.8284271247461856E-2</v>
+        <v>-0.37</v>
       </c>
       <c r="C18" s="11">
         <f>U5-U4</f>
@@ -4339,11 +4321,11 @@
       </c>
       <c r="D18" s="25">
         <f>V5-V4</f>
-        <v>-0.48083261120685233</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="F18" s="39">
         <f>SQRT(B18*B18+C18*C18+D18*D18)</f>
-        <v>0.48166378315169184</v>
+        <v>0.4701063709417263</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4352,7 +4334,7 @@
       </c>
       <c r="B19" s="18">
         <f>T6-T7</f>
-        <v>0.48083261120685239</v>
+        <v>-0.37</v>
       </c>
       <c r="C19" s="15">
         <f>U6-U7</f>
@@ -4360,11 +4342,11 @@
       </c>
       <c r="D19" s="16">
         <f>V6-V7</f>
-        <v>-2.8284271247461856E-2</v>
+        <v>0.28999999999999987</v>
       </c>
       <c r="F19" s="7">
         <f>SQRT(B19*B19+C19*C19+D19*D19)</f>
-        <v>0.48166378315169189</v>
+        <v>0.47010637094172625</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4374,14 +4356,14 @@
       </c>
       <c r="B21" s="4">
         <f>SUMPRODUCT(B18:D18,B19:D19)</f>
-        <v>2.719999999999996E-2</v>
+        <v>5.2800000000000041E-2</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="42">
         <f>(180/PI())*ACOS(B21/(F18*F19))</f>
-        <v>83.267078673140418</v>
+        <v>76.177545761950626</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4397,7 +4379,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="str">
+      <c r="A24" s="75" t="str">
         <f>A3</f>
         <v>point R</v>
       </c>
@@ -4418,43 +4400,43 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C25">
         <f>N3*B41</f>
-        <v>0.22627416997969524</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D25" s="73">
         <f>O3</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E25" s="62">
         <f>P3</f>
-        <v>-0.22627416997969518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="63">
         <f>T3*B41</f>
-        <v>0.48083261120685233</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D26" s="63">
         <f>U3</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E26" s="64">
         <f>V3</f>
-        <v>2.8284271247461912E-2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="str">
+      <c r="A27" s="75" t="str">
         <f>A4</f>
         <v>point ++</v>
       </c>
@@ -4475,43 +4457,43 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C28">
         <f>N4*B41</f>
-        <v>0.30909626441250188</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D28">
         <f>O4</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E28" s="62">
         <f>P4</f>
-        <v>-8.2822094432806637E-2</v>
+        <v>0.14499999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="63">
         <f>T4</f>
-        <v>0.40227112064940934</v>
+        <v>-6.6147367097487281E-2</v>
       </c>
       <c r="D29" s="63">
         <f>U4</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E29" s="64">
         <f>V4</f>
-        <v>0.26491120303125792</v>
+        <v>0.46542939940024231</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="str">
+      <c r="A30" s="75" t="str">
         <f>A5</f>
         <v>point --</v>
       </c>
@@ -4532,43 +4514,43 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C31">
         <f>N5*B41</f>
-        <v>8.2822094432806637E-2</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D31">
         <f>O5</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E31" s="62">
         <f>P5</f>
-        <v>-0.30909626441250188</v>
+        <v>-0.14499999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="63">
         <f>T5</f>
-        <v>0.4305553918968712</v>
+        <v>-0.43614736709748725</v>
       </c>
       <c r="D32" s="63">
         <f>U5</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E32" s="64">
         <f>V5</f>
-        <v>-0.21592140817559441</v>
+        <v>0.17542939940024233</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="str">
+      <c r="A33" s="75" t="str">
         <f>A6</f>
         <v>point +-</v>
       </c>
@@ -4589,43 +4571,43 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C34">
         <f>N6*B41</f>
-        <v>0.30909626441250188</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D34">
         <f>O6</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E34" s="62">
         <f>P6</f>
-        <v>-8.2822094432806637E-2</v>
+        <v>0.14499999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="63">
         <f>T6</f>
-        <v>0.65682956187656649</v>
+        <v>-0.43614736709748725</v>
       </c>
       <c r="D35" s="63">
         <f>U6</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E35" s="64">
         <f>V6</f>
-        <v>1.035276180410083E-2</v>
+        <v>0.46542939940024225</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="80" t="str">
+      <c r="A36" s="75" t="str">
         <f>A7</f>
         <v>point -+</v>
       </c>
@@ -4646,39 +4628,39 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C37">
         <f>N7*B41</f>
-        <v>8.2822094432806637E-2</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D37">
         <f>O7</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E37" s="62">
         <f>P7</f>
-        <v>-0.30909626441250188</v>
+        <v>-0.14499999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="70" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="63">
         <f>T7</f>
-        <v>0.1759969506697141</v>
+        <v>-6.6147367097487281E-2</v>
       </c>
       <c r="D38" s="63">
         <f>U7</f>
-        <v>-1.9602375278537921E-17</v>
+        <v>-1.776465259617499E-17</v>
       </c>
       <c r="E38" s="64">
         <f>V7</f>
-        <v>3.8637033051562686E-2</v>
+        <v>0.17542939940024238</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4691,21 +4673,21 @@
         <v>45</v>
       </c>
       <c r="B41" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4718,10 +4700,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -4753,15 +4735,15 @@
       </c>
       <c r="C2">
         <f>XLSX!C25</f>
-        <v>0.22627416997969524</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D2">
         <f>XLSX!E25</f>
-        <v>-0.22627416997969518</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,15 +4755,15 @@
       </c>
       <c r="C3">
         <f>XLSX!C26</f>
-        <v>0.48083261120685233</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="D3">
         <f>XLSX!E26</f>
-        <v>2.8284271247461912E-2</v>
+        <v>0.37</v>
       </c>
       <c r="E3">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4793,15 +4775,15 @@
       </c>
       <c r="C4">
         <f>XLSX!C28</f>
-        <v>0.30909626441250188</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D4">
         <f>XLSX!E28</f>
-        <v>-8.2822094432806637E-2</v>
+        <v>0.14499999999999996</v>
       </c>
       <c r="E4">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,15 +4795,15 @@
       </c>
       <c r="C5">
         <f>XLSX!C29</f>
-        <v>0.40227112064940934</v>
+        <v>-6.6147367097487281E-2</v>
       </c>
       <c r="D5">
         <f>XLSX!E29</f>
-        <v>0.26491120303125792</v>
+        <v>0.46542939940024231</v>
       </c>
       <c r="E5">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4833,15 +4815,15 @@
       </c>
       <c r="C6">
         <f>XLSX!C31</f>
-        <v>8.2822094432806637E-2</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D6">
         <f>XLSX!E31</f>
-        <v>-0.30909626441250188</v>
+        <v>-0.14499999999999996</v>
       </c>
       <c r="E6">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4853,15 +4835,15 @@
       </c>
       <c r="C7">
         <f>XLSX!C32</f>
-        <v>0.4305553918968712</v>
+        <v>-0.43614736709748725</v>
       </c>
       <c r="D7">
         <f>XLSX!E32</f>
-        <v>-0.21592140817559441</v>
+        <v>0.17542939940024233</v>
       </c>
       <c r="E7">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4873,15 +4855,15 @@
       </c>
       <c r="C8">
         <f>XLSX!C34</f>
-        <v>0.30909626441250188</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D8">
         <f>XLSX!E34</f>
-        <v>-8.2822094432806637E-2</v>
+        <v>0.14499999999999996</v>
       </c>
       <c r="E8">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4893,15 +4875,15 @@
       </c>
       <c r="C9">
         <f>XLSX!C35</f>
-        <v>0.65682956187656649</v>
+        <v>-0.43614736709748725</v>
       </c>
       <c r="D9">
         <f>XLSX!E35</f>
-        <v>1.035276180410083E-2</v>
+        <v>0.46542939940024225</v>
       </c>
       <c r="E9">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,15 +4895,15 @@
       </c>
       <c r="C10">
         <f>XLSX!C37</f>
-        <v>8.2822094432806637E-2</v>
+        <v>-0.2511473670974872</v>
       </c>
       <c r="D10">
         <f>XLSX!E37</f>
-        <v>-0.30909626441250188</v>
+        <v>-0.14499999999999996</v>
       </c>
       <c r="E10">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4933,15 +4915,15 @@
       </c>
       <c r="C11">
         <f>XLSX!C38</f>
-        <v>0.1759969506697141</v>
+        <v>-6.6147367097487281E-2</v>
       </c>
       <c r="D11">
         <f>XLSX!E38</f>
-        <v>3.8637033051562686E-2</v>
+        <v>0.17542939940024238</v>
       </c>
       <c r="E11">
         <f>XLSX!B$41</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/visualisation_combinaison.xlsx
+++ b/Assets/Resources/visualisation_combinaison.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D182A-234C-4395-8870-4D131EBCE7C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB1A334-CFDF-4AD1-9491-852131180DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XLSX" sheetId="1" r:id="rId1"/>
     <sheet name="CSVforUnity" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1106,7 +1119,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1168,7 +1181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1179,8 +1192,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.3126150179503424E-2"/>
-          <c:y val="5.2596975673898753E-2"/>
+          <c:x val="4.607098105430197E-2"/>
+          <c:y val="9.6586822328231636E-3"/>
           <c:w val="0.92764013334540074"/>
           <c:h val="0.88757965905149427"/>
         </c:manualLayout>
@@ -1259,10 +1272,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-6.6147367097487281E-2</c:v>
+                  <c:v>-0.29372865266450376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.43614736709748725</c:v>
+                  <c:v>0.26513945688335466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,10 +1287,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.46542939940024231</c:v>
+                  <c:v>0.47574099029334932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17542939940024233</c:v>
+                  <c:v>0.4922469701735106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,10 +1340,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.43614736709748725</c:v>
+                  <c:v>-5.6174559820696177E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.6147367097487281E-2</c:v>
+                  <c:v>2.7585364039547089E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,10 +1355,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.46542939940024225</c:v>
+                  <c:v>0.64207815683515257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17542939940024238</c:v>
+                  <c:v>0.3259098036317073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1407,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-0.25114736709748731</c:v>
+                  <c:v>-1.4294597890574554E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,7 +1419,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.32042939940024229</c:v>
+                  <c:v>0.48399398023342999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +1499,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1513,7 +1528,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1545,7 +1562,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1585,10 +1602,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.28999999999999998</c:v>
+                  <c:v>0.14983118666164202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.28999999999999998</c:v>
+                  <c:v>-1.6505979880161253E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,10 +1620,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.3213140167040508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.55886810954785848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1713,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1728,7 +1747,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1768,10 +1787,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2511473670974872</c:v>
+                  <c:v>-3.0899394423875286E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.6147367097487281E-2</c:v>
+                  <c:v>-0.29372865266450376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,10 +1805,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14499999999999996</c:v>
+                  <c:v>0.35318169438854646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46542939940024231</c:v>
+                  <c:v>0.47574099029334932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,7 +1904,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -1917,7 +1938,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1957,10 +1978,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2511473670974872</c:v>
+                  <c:v>0.29041462228017556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43614736709748725</c:v>
+                  <c:v>0.26513945688335466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,10 +1996,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14499999999999996</c:v>
+                  <c:v>0.20335050772690444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17542939940024233</c:v>
+                  <c:v>0.4922469701735106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2090,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2102,7 +2125,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2134,7 +2159,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2174,10 +2199,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2511473670974872</c:v>
+                  <c:v>-3.0899394423875286E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43614736709748725</c:v>
+                  <c:v>-5.6174559820696177E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,10 +2217,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14499999999999996</c:v>
+                  <c:v>0.35318169438854646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46542939940024225</c:v>
+                  <c:v>0.64207815683515257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,7 +2296,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2304,7 +2331,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2337,7 +2366,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-56B8-48E5-BFFF-4682317F857F}"/>
                 </c:ext>
@@ -2369,7 +2400,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2409,10 +2440,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2511473670974872</c:v>
+                  <c:v>0.29041462228017556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.6147367097487281E-2</c:v>
+                  <c:v>2.7585364039547089E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,10 +2458,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14499999999999996</c:v>
+                  <c:v>0.20335050772690444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17542939940024238</c:v>
+                  <c:v>0.3259098036317073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2564,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2571,7 +2602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-869429664"/>
@@ -2658,7 +2689,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2696,7 +2727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-869430208"/>
@@ -2748,7 +2779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2778,7 +2809,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3387,9 +3418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3427,9 +3458,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3462,26 +3493,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3514,26 +3528,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3709,11 +3706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -3824,27 +3821,27 @@
         <v>20</v>
       </c>
       <c r="B3" s="46">
+        <v>0.36</v>
+      </c>
+      <c r="C3" s="47">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C3" s="47">
-        <v>0.37</v>
-      </c>
       <c r="D3" s="47">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E3" s="47">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F3" s="48">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G3" s="26">
         <f>180-$F3</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H3" s="11">
         <f>$G3+$E3</f>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I3" s="9">
         <v>0</v>
@@ -3863,38 +3860,38 @@
       </c>
       <c r="N3" s="26">
         <f>$B3*ABS(SIN($D3*PI()/180))*COS(($E3+$I3)*PI()/180)</f>
-        <v>0.28999999999999998</v>
+        <v>0.14983118666164202</v>
       </c>
       <c r="O3" s="71">
         <f>-$B3*COS($D3*PI()/180)</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="P3" s="25">
         <f>$B3*ABS(SIN($D3*PI()/180))*SIN(($E3+$I3)*PI()/180)</f>
-        <v>0</v>
+        <v>0.3213140167040508</v>
       </c>
       <c r="Q3" s="24">
         <f>$C3*COS(($H3+$J3)*PI()/180)</f>
-        <v>2.2665246415809471E-17</v>
+        <v>-0.16633716654180328</v>
       </c>
       <c r="R3" s="11">
         <v>0</v>
       </c>
       <c r="S3" s="25">
         <f>$C3*SIN(($H3+$J3)*PI()/180)</f>
-        <v>0.37</v>
+        <v>0.23755409284380766</v>
       </c>
       <c r="T3" s="24">
         <f>N3+Q3</f>
-        <v>0.28999999999999998</v>
+        <v>-1.6505979880161253E-2</v>
       </c>
       <c r="U3" s="11">
         <f t="shared" ref="U3" si="0">O3+R3</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="V3" s="25">
         <f>P3+S3</f>
-        <v>0.37</v>
+        <v>0.55886810954785848</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3903,31 +3900,31 @@
       </c>
       <c r="B4" s="52">
         <f t="shared" ref="B4:H4" si="1">B3</f>
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="C4" s="44">
         <f t="shared" si="1"/>
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D4" s="44">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E4" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E3</f>
+        <v>65</v>
       </c>
       <c r="F4" s="44">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>F3</f>
+        <v>120</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I4" s="45">
         <v>30</v>
@@ -3947,38 +3944,38 @@
       </c>
       <c r="N4" s="17">
         <f>$B4*ABS(SIN($D4*PI()/180))*COS(($E4+$I4)*PI()/180)</f>
-        <v>0.2511473670974872</v>
+        <v>-3.0899394423875286E-2</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O6" si="2">-$B4*COS($D4*PI()/180)</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="P4" s="13">
         <f>$B4*ABS(SIN($D4*PI()/180))*SIN(($E4+$I4)*PI()/180)</f>
-        <v>0.14499999999999996</v>
+        <v>0.35318169438854646</v>
       </c>
       <c r="Q4" s="12">
         <f>$C4*COS(($H4+$J4)*PI()/180)</f>
-        <v>-0.18499999999999991</v>
+        <v>-0.26282925824062847</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="13">
         <f>$C4*SIN(($H4+$J4)*PI()/180)</f>
-        <v>0.32042939940024234</v>
+        <v>0.12255929590480284</v>
       </c>
       <c r="T4" s="12">
         <f>(N4+Q4)*B41</f>
-        <v>-6.6147367097487281E-2</v>
+        <v>-0.29372865266450376</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U7" si="3">O4+R4</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="V4" s="13">
         <f>P4+S4</f>
-        <v>0.46542939940024231</v>
+        <v>0.47574099029334932</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -3987,31 +3984,31 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" ref="B5:H5" si="4">B3</f>
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="4"/>
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I5" s="44">
         <f>-I4</f>
@@ -4032,38 +4029,38 @@
       </c>
       <c r="N5" s="17">
         <f>$B5*ABS(SIN($D5*PI()/180))*COS(($E5+$I5)*PI()/180)</f>
-        <v>0.2511473670974872</v>
+        <v>0.29041462228017556</v>
       </c>
       <c r="O5" s="1">
         <f>-$B5*COS($D5*PI()/180)</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="P5" s="13">
         <f>$B5*ABS(SIN($D5*PI()/180))*SIN(($E5+$I5)*PI()/180)</f>
-        <v>-0.14499999999999996</v>
+        <v>0.20335050772690444</v>
       </c>
       <c r="Q5" s="12">
         <f>$C5*COS(($H5+$J5)*PI()/180)</f>
-        <v>0.18500000000000003</v>
+        <v>-2.5275165396820887E-2</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="13">
         <f>$C5*SIN(($H5+$J5)*PI()/180)</f>
-        <v>0.32042939940024229</v>
+        <v>0.28889646244660616</v>
       </c>
       <c r="T5" s="12">
         <f>(N5+Q5)*B41</f>
-        <v>-0.43614736709748725</v>
+        <v>0.26513945688335466</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="3"/>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="V5" s="13">
         <f t="shared" ref="V5:V7" si="5">P5+S5</f>
-        <v>0.17542939940024233</v>
+        <v>0.4922469701735106</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -4072,31 +4069,31 @@
       </c>
       <c r="B6" s="12">
         <f t="shared" ref="B6:H6" si="6">B3</f>
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1">
         <f>I4</f>
@@ -4117,38 +4114,38 @@
       </c>
       <c r="N6" s="17">
         <f>$B6*ABS(SIN($D6*PI()/180))*COS(($E6+$I6)*PI()/180)</f>
-        <v>0.2511473670974872</v>
+        <v>-3.0899394423875286E-2</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="P6" s="13">
         <f>$B6*ABS(SIN($D6*PI()/180))*SIN(($E6+$I6)*PI()/180)</f>
-        <v>0.14499999999999996</v>
+        <v>0.35318169438854646</v>
       </c>
       <c r="Q6" s="12">
         <f>$C6*COS(($H6+$J6)*PI()/180)</f>
-        <v>0.18500000000000003</v>
+        <v>-2.5275165396820887E-2</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
       <c r="S6" s="13">
         <f t="shared" ref="S6:S7" si="7">$C6*SIN(($H6+$J6)*PI()/180)</f>
-        <v>0.32042939940024229</v>
+        <v>0.28889646244660616</v>
       </c>
       <c r="T6" s="12">
         <f>(N6+Q6)*B41</f>
-        <v>-0.43614736709748725</v>
+        <v>-5.6174559820696177E-2</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="V6" s="13">
         <f t="shared" si="5"/>
-        <v>0.46542939940024225</v>
+        <v>0.64207815683515257</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4157,31 +4154,31 @@
       </c>
       <c r="B7" s="14">
         <f t="shared" ref="B7:H7" si="8">B3</f>
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="8"/>
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="I7" s="15">
         <f>-I4</f>
@@ -4202,38 +4199,38 @@
       </c>
       <c r="N7" s="18">
         <f>$B7*ABS(SIN($D7*PI()/180))*COS(($E7+$I7)*PI()/180)</f>
-        <v>0.2511473670974872</v>
+        <v>0.29041462228017556</v>
       </c>
       <c r="O7" s="15">
         <f>-$B7*COS($D7*PI()/180)</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="P7" s="16">
         <f>$B7*ABS(SIN($D7*PI()/180))*SIN(($E7+$I7)*PI()/180)</f>
-        <v>-0.14499999999999996</v>
+        <v>0.20335050772690444</v>
       </c>
       <c r="Q7" s="14">
         <f>$C7*COS(($H7+$J7)*PI()/180)</f>
-        <v>-0.18499999999999991</v>
+        <v>-0.26282925824062847</v>
       </c>
       <c r="R7" s="15">
         <v>0</v>
       </c>
       <c r="S7" s="16">
         <f t="shared" si="7"/>
-        <v>0.32042939940024234</v>
+        <v>0.12255929590480284</v>
       </c>
       <c r="T7" s="14">
         <f>(N7+Q7)*B41</f>
-        <v>-6.6147367097487281E-2</v>
+        <v>2.7585364039547089E-2</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" si="3"/>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="5"/>
-        <v>0.17542939940024238</v>
+        <v>0.3259098036317073</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4243,14 +4240,14 @@
       </c>
       <c r="B10" s="28">
         <f>(V5-V4)/(T5-T4)</f>
-        <v>0.78378378378378377</v>
+        <v>2.9534660500695104E-2</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="29">
         <f>V4-B10*T4</f>
-        <v>0.51727463307124588</v>
+        <v>0.48441616632912204</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4259,14 +4256,14 @@
       </c>
       <c r="B11" s="31">
         <f>(V6-V7)/(T6-T7)</f>
-        <v>-0.78378378378378344</v>
+        <v>-3.7746972374400034</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="32">
         <f>V6-B11*T6</f>
-        <v>0.12358416572923886</v>
+        <v>0.43003620106556251</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4291,15 +4288,15 @@
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="36">
         <f>(D11-D10)/(B10-B11)</f>
-        <v>-0.25114736709748731</v>
+        <v>-1.4294597890574554E-2</v>
       </c>
       <c r="C16" s="37">
         <f>U3</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="D16" s="38">
         <f>B10*B16+D10</f>
-        <v>0.32042939940024229</v>
+        <v>0.48399398023342999</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4313,7 +4310,7 @@
       </c>
       <c r="B18" s="26">
         <f>T5-T4</f>
-        <v>-0.37</v>
+        <v>0.55886810954785848</v>
       </c>
       <c r="C18" s="11">
         <f>U5-U4</f>
@@ -4321,11 +4318,11 @@
       </c>
       <c r="D18" s="25">
         <f>V5-V4</f>
-        <v>-0.28999999999999998</v>
+        <v>1.6505979880161281E-2</v>
       </c>
       <c r="F18" s="39">
         <f>SQRT(B18*B18+C18*C18+D18*D18)</f>
-        <v>0.4701063709417263</v>
+        <v>0.55911180567163976</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,7 +4331,7 @@
       </c>
       <c r="B19" s="18">
         <f>T6-T7</f>
-        <v>-0.37</v>
+        <v>-8.3759923860243266E-2</v>
       </c>
       <c r="C19" s="15">
         <f>U6-U7</f>
@@ -4342,11 +4339,11 @@
       </c>
       <c r="D19" s="16">
         <f>V6-V7</f>
-        <v>0.28999999999999987</v>
+        <v>0.31616835320344527</v>
       </c>
       <c r="F19" s="7">
         <f>SQRT(B19*B19+C19*C19+D19*D19)</f>
-        <v>0.47010637094172625</v>
+        <v>0.32707514795907727</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4356,14 +4353,14 @@
       </c>
       <c r="B21" s="4">
         <f>SUMPRODUCT(B18:D18,B19:D19)</f>
-        <v>5.2800000000000041E-2</v>
+        <v>-4.1592081826926926E-2</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="42">
         <f>(180/PI())*ACOS(B21/(F18*F19))</f>
-        <v>76.177545761950626</v>
+        <v>103.14632669260318</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4406,15 +4403,15 @@
       </c>
       <c r="C25">
         <f>N3*B41</f>
-        <v>-0.28999999999999998</v>
+        <v>0.14983118666164202</v>
       </c>
       <c r="D25" s="73">
         <f>O3</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E25" s="62">
         <f>P3</f>
-        <v>0</v>
+        <v>0.3213140167040508</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4424,15 +4421,15 @@
       </c>
       <c r="C26" s="63">
         <f>T3*B41</f>
-        <v>-0.28999999999999998</v>
+        <v>-1.6505979880161253E-2</v>
       </c>
       <c r="D26" s="63">
         <f>U3</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E26" s="64">
         <f>V3</f>
-        <v>0.37</v>
+        <v>0.55886810954785848</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4463,15 +4460,15 @@
       </c>
       <c r="C28">
         <f>N4*B41</f>
-        <v>-0.2511473670974872</v>
+        <v>-3.0899394423875286E-2</v>
       </c>
       <c r="D28">
         <f>O4</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E28" s="62">
         <f>P4</f>
-        <v>0.14499999999999996</v>
+        <v>0.35318169438854646</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4481,15 +4478,15 @@
       </c>
       <c r="C29" s="63">
         <f>T4</f>
-        <v>-6.6147367097487281E-2</v>
+        <v>-0.29372865266450376</v>
       </c>
       <c r="D29" s="63">
         <f>U4</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E29" s="64">
         <f>V4</f>
-        <v>0.46542939940024231</v>
+        <v>0.47574099029334932</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4520,15 +4517,15 @@
       </c>
       <c r="C31">
         <f>N5*B41</f>
-        <v>-0.2511473670974872</v>
+        <v>0.29041462228017556</v>
       </c>
       <c r="D31">
         <f>O5</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E31" s="62">
         <f>P5</f>
-        <v>-0.14499999999999996</v>
+        <v>0.20335050772690444</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4538,15 +4535,15 @@
       </c>
       <c r="C32" s="63">
         <f>T5</f>
-        <v>-0.43614736709748725</v>
+        <v>0.26513945688335466</v>
       </c>
       <c r="D32" s="63">
         <f>U5</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E32" s="64">
         <f>V5</f>
-        <v>0.17542939940024233</v>
+        <v>0.4922469701735106</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4577,15 +4574,15 @@
       </c>
       <c r="C34">
         <f>N6*B41</f>
-        <v>-0.2511473670974872</v>
+        <v>-3.0899394423875286E-2</v>
       </c>
       <c r="D34">
         <f>O6</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E34" s="62">
         <f>P6</f>
-        <v>0.14499999999999996</v>
+        <v>0.35318169438854646</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4595,15 +4592,15 @@
       </c>
       <c r="C35" s="63">
         <f>T6</f>
-        <v>-0.43614736709748725</v>
+        <v>-5.6174559820696177E-2</v>
       </c>
       <c r="D35" s="63">
         <f>U6</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E35" s="64">
         <f>V6</f>
-        <v>0.46542939940024225</v>
+        <v>0.64207815683515257</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4634,15 +4631,15 @@
       </c>
       <c r="C37">
         <f>N7*B41</f>
-        <v>-0.2511473670974872</v>
+        <v>0.29041462228017556</v>
       </c>
       <c r="D37">
         <f>O7</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E37" s="62">
         <f>P7</f>
-        <v>-0.14499999999999996</v>
+        <v>0.20335050772690444</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4652,15 +4649,15 @@
       </c>
       <c r="C38" s="63">
         <f>T7</f>
-        <v>-6.6147367097487281E-2</v>
+        <v>2.7585364039547089E-2</v>
       </c>
       <c r="D38" s="63">
         <f>U7</f>
-        <v>-1.776465259617499E-17</v>
+        <v>-6.2513343960094947E-2</v>
       </c>
       <c r="E38" s="64">
         <f>V7</f>
-        <v>0.17542939940024238</v>
+        <v>0.3259098036317073</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4673,7 +4670,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4700,10 +4697,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -4735,15 +4732,15 @@
       </c>
       <c r="C2">
         <f>XLSX!C25</f>
-        <v>-0.28999999999999998</v>
+        <v>0.14983118666164202</v>
       </c>
       <c r="D2">
         <f>XLSX!E25</f>
-        <v>0</v>
+        <v>0.3213140167040508</v>
       </c>
       <c r="E2">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4755,15 +4752,15 @@
       </c>
       <c r="C3">
         <f>XLSX!C26</f>
-        <v>-0.28999999999999998</v>
+        <v>-1.6505979880161253E-2</v>
       </c>
       <c r="D3">
         <f>XLSX!E26</f>
-        <v>0.37</v>
+        <v>0.55886810954785848</v>
       </c>
       <c r="E3">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,15 +4772,15 @@
       </c>
       <c r="C4">
         <f>XLSX!C28</f>
-        <v>-0.2511473670974872</v>
+        <v>-3.0899394423875286E-2</v>
       </c>
       <c r="D4">
         <f>XLSX!E28</f>
-        <v>0.14499999999999996</v>
+        <v>0.35318169438854646</v>
       </c>
       <c r="E4">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4795,15 +4792,15 @@
       </c>
       <c r="C5">
         <f>XLSX!C29</f>
-        <v>-6.6147367097487281E-2</v>
+        <v>-0.29372865266450376</v>
       </c>
       <c r="D5">
         <f>XLSX!E29</f>
-        <v>0.46542939940024231</v>
+        <v>0.47574099029334932</v>
       </c>
       <c r="E5">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4815,15 +4812,15 @@
       </c>
       <c r="C6">
         <f>XLSX!C31</f>
-        <v>-0.2511473670974872</v>
+        <v>0.29041462228017556</v>
       </c>
       <c r="D6">
         <f>XLSX!E31</f>
-        <v>-0.14499999999999996</v>
+        <v>0.20335050772690444</v>
       </c>
       <c r="E6">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4835,15 +4832,15 @@
       </c>
       <c r="C7">
         <f>XLSX!C32</f>
-        <v>-0.43614736709748725</v>
+        <v>0.26513945688335466</v>
       </c>
       <c r="D7">
         <f>XLSX!E32</f>
-        <v>0.17542939940024233</v>
+        <v>0.4922469701735106</v>
       </c>
       <c r="E7">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,15 +4852,15 @@
       </c>
       <c r="C8">
         <f>XLSX!C34</f>
-        <v>-0.2511473670974872</v>
+        <v>-3.0899394423875286E-2</v>
       </c>
       <c r="D8">
         <f>XLSX!E34</f>
-        <v>0.14499999999999996</v>
+        <v>0.35318169438854646</v>
       </c>
       <c r="E8">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4875,15 +4872,15 @@
       </c>
       <c r="C9">
         <f>XLSX!C35</f>
-        <v>-0.43614736709748725</v>
+        <v>-5.6174559820696177E-2</v>
       </c>
       <c r="D9">
         <f>XLSX!E35</f>
-        <v>0.46542939940024225</v>
+        <v>0.64207815683515257</v>
       </c>
       <c r="E9">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,15 +4892,15 @@
       </c>
       <c r="C10">
         <f>XLSX!C37</f>
-        <v>-0.2511473670974872</v>
+        <v>0.29041462228017556</v>
       </c>
       <c r="D10">
         <f>XLSX!E37</f>
-        <v>-0.14499999999999996</v>
+        <v>0.20335050772690444</v>
       </c>
       <c r="E10">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4915,15 +4912,15 @@
       </c>
       <c r="C11">
         <f>XLSX!C38</f>
-        <v>-6.6147367097487281E-2</v>
+        <v>2.7585364039547089E-2</v>
       </c>
       <c r="D11">
         <f>XLSX!E38</f>
-        <v>0.17542939940024238</v>
+        <v>0.3259098036317073</v>
       </c>
       <c r="E11">
         <f>XLSX!B$41</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
